--- a/backend/示例数据_测试导入.xlsx
+++ b/backend/示例数据_测试导入.xlsx
@@ -482,27 +482,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>治安</t>
+          <t>行政</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>调解协议书未上传</t>
+          <t>文书未开具,调解协议书未上传,案件笔录未关联</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>刘警官</t>
+          <t>赵警官</t>
         </is>
       </c>
     </row>
@@ -522,27 +522,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>行政</t>
+          <t>治安</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>涉案物品未出入库,调解协议书未上传,强制措施超期提醒</t>
+          <t>涉案物品未出入库,未结案卷未归档,文书未开具</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>李警官</t>
+          <t>赵警官</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -572,17 +572,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>文书未开具,强制措施超期提醒,调解协议书未上传</t>
+          <t>文书未开具,涉案物品未出入库,强制措施超期提醒</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>张警官</t>
+          <t>赵警官</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-12-26</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -612,17 +612,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>文书未开具,强制措施超期提醒,涉案物品未出入库</t>
+          <t>治安案件延长审批</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>赵警官</t>
+          <t>李警官</t>
         </is>
       </c>
     </row>
@@ -642,17 +642,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>治安</t>
+          <t>刑事</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>文书未开具</t>
+          <t>强制措施超期提醒,未结案卷未归档</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>刘警官</t>
+          <t>赵警官</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -692,17 +692,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>案件笔录未关联</t>
+          <t>涉案物品未出入库</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>张警官</t>
+          <t>陈警官</t>
         </is>
       </c>
     </row>
@@ -722,27 +722,27 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>行政</t>
+          <t>治安</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>调解协议书未上传,治安案件延长审批,涉案物品未出入库</t>
+          <t>未结案卷未归档</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>陈警官</t>
+          <t>李警官</t>
         </is>
       </c>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -772,17 +772,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>强制措施超期提醒,文书未开具</t>
+          <t>案件笔录未关联,执法音视频未上传,治安案件延长审批</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>王警官</t>
+          <t>李警官</t>
         </is>
       </c>
     </row>
@@ -802,27 +802,27 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>刑事</t>
+          <t>治安</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>治安案件延长审批,文书未开具,调解协议书未上传</t>
+          <t>案件笔录未关联,调解协议书未上传,强制措施超期提醒</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>刘警官</t>
+          <t>陈警官</t>
         </is>
       </c>
     </row>
@@ -847,17 +847,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>行政</t>
+          <t>治安</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>执法音视频未上传</t>
+          <t>未结案卷未归档,调解协议书未上传</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -882,27 +882,27 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>刑事</t>
+          <t>治安</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>调解协议书未上传,涉案物品未出入库</t>
+          <t>调解协议书未上传,治安案件延长审批</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>赵警官</t>
+          <t>张警官</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -932,17 +932,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>未结案卷未归档,案件笔录未关联,涉案物品未出入库</t>
+          <t>文书未开具,执法音视频未上传,涉案物品未出入库</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>张警官</t>
+          <t>王警官</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -972,17 +972,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>案件笔录未关联,强制措施超期提醒</t>
+          <t>案件笔录未关联,涉案物品未出入库</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>赵警官</t>
+          <t>李警官</t>
         </is>
       </c>
     </row>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1012,17 +1012,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>调解协议书未上传,案件笔录未关联</t>
+          <t>未结案卷未归档,强制措施超期提醒,涉案物品未出入库</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>王警官</t>
+          <t>陈警官</t>
         </is>
       </c>
     </row>
@@ -1042,27 +1042,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-12-26</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>行政</t>
+          <t>治安</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>调解协议书未上传,强制措施超期提醒</t>
+          <t>治安案件延长审批,调解协议书未上传,未结案卷未归档</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>张警官</t>
+          <t>刘警官</t>
         </is>
       </c>
     </row>
@@ -1138,22 +1138,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>物业纠纷</t>
+          <t>家庭矛盾</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>商铺租户与房东因租金上涨问题产生分歧，双方协商未果，需要调解介入。</t>
+          <t>家庭成员因财产分割问题产生争议，情绪激烈，需要调解。</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>中</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>已调解</t>
+          <t>待盯办</t>
         </is>
       </c>
     </row>
@@ -1178,32 +1178,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>劳资纠纷</t>
+          <t>物业纠纷</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>居民张某与李某因楼上漏水问题产生纠纷，双方情绪激动，需要及时调解处理。</t>
+          <t>小区业主因宠物饲养问题产生纠纷，需要社区介入协调。</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>陈警官</t>
+          <t>赵警官</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>未调解</t>
+          <t>待盯办</t>
         </is>
       </c>
     </row>
@@ -1218,32 +1218,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>劳资纠纷</t>
+          <t>邻里矛盾</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>邻居因装修噪音问题产生矛盾，多次沟通无果，申请调解。</t>
+          <t>小区业主因宠物饲养问题产生纠纷，需要社区介入协调。</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>中</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>李警官</t>
+          <t>刘警官</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>调解中</t>
+          <t>待盯办</t>
         </is>
       </c>
     </row>
@@ -1258,32 +1258,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>邻里矛盾</t>
+          <t>物业纠纷</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>业主王某长期占用公共停车位，引发其他业主不满，物业协调未果。</t>
+          <t>家庭成员因财产分割问题产生争议，情绪激烈，需要调解。</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>刘警官</t>
+          <t>李警官</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>待盯办</t>
+          <t>调解中</t>
         </is>
       </c>
     </row>
@@ -1298,22 +1298,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>家庭矛盾</t>
+          <t>劳资纠纷</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>居民张某与李某因楼上漏水问题产生纠纷，双方情绪激动，需要及时调解处理。</t>
+          <t>物业公司与业主因物业费收取问题产生纠纷，需要协调处理。</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>已调解</t>
+          <t>待盯办</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1338,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>劳资纠纷</t>
+          <t>家庭矛盾</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>家庭成员因财产分割问题产生争议，情绪激烈，需要调解。</t>
+          <t>物业公司与业主因物业费收取问题产生纠纷，需要协调处理。</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>陈警官</t>
+          <t>张警官</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>已调解</t>
+          <t>未调解</t>
         </is>
       </c>
     </row>
@@ -1378,17 +1378,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>家庭矛盾</t>
+          <t>物业纠纷</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>业主王某长期占用公共停车位，引发其他业主不满，物业协调未果。</t>
+          <t>物业公司与业主因物业费收取问题产生纠纷，需要协调处理。</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>王警官</t>
+          <t>李警官</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>调解中</t>
+          <t>已调解</t>
         </is>
       </c>
     </row>
@@ -1428,17 +1428,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>中</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>刘警官</t>
+          <t>赵警官</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1458,12 +1458,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>邻里矛盾</t>
+          <t>家庭矛盾</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>家庭成员因财产分割问题产生争议，情绪激烈，需要调解。</t>
+          <t>小区业主因宠物饲养问题产生纠纷，需要社区介入协调。</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1473,17 +1473,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>陈警官</t>
+          <t>刘警官</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>未调解</t>
+          <t>调解中</t>
         </is>
       </c>
     </row>
@@ -1498,32 +1498,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>劳资纠纷</t>
+          <t>家庭矛盾</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>业主王某长期占用公共停车位，引发其他业主不满，物业协调未果。</t>
+          <t>小区业主因宠物饲养问题产生纠纷，需要社区介入协调。</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>李警官</t>
+          <t>张警官</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>已调解</t>
+          <t>未调解</t>
         </is>
       </c>
     </row>
@@ -1538,27 +1538,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>邻里矛盾</t>
+          <t>劳资纠纷</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>邻居因装修噪音问题产生矛盾，多次沟通无果，申请调解。</t>
+          <t>员工与企业因工资发放问题产生劳资纠纷，申请调解。</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>中</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>刘警官</t>
+          <t>赵警官</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1578,32 +1578,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>劳资纠纷</t>
+          <t>物业纠纷</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>物业公司与业主因物业费收取问题产生纠纷，需要协调处理。</t>
+          <t>员工与企业因工资发放问题产生劳资纠纷，申请调解。</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>赵警官</t>
+          <t>王警官</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>待盯办</t>
+          <t>未调解</t>
         </is>
       </c>
     </row>
@@ -1618,32 +1618,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>邻里矛盾</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>小区业主因宠物饲养问题产生纠纷，需要社区介入协调。</t>
+          <t>物业公司与业主因物业费收取问题产生纠纷，需要协调处理。</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>王警官</t>
+          <t>张警官</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>已调解</t>
+          <t>待盯办</t>
         </is>
       </c>
     </row>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>物业纠纷</t>
+          <t>邻里矛盾</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1668,22 +1668,22 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>中</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>赵警官</t>
+          <t>王警官</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>未调解</t>
+          <t>待盯办</t>
         </is>
       </c>
     </row>
@@ -1698,27 +1698,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>劳资纠纷</t>
+          <t>物业纠纷</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>小区业主因宠物饲养问题产生纠纷，需要社区介入协调。</t>
+          <t>居民张某与李某因楼上漏水问题产生纠纷，双方情绪激动，需要及时调解处理。</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>中</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>王警官</t>
+          <t>张警官</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>物业纠纷</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2025-12-28</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1758,12 +1758,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>李警官</t>
+          <t>刘警官</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>调解中</t>
+          <t>已调解</t>
         </is>
       </c>
     </row>
@@ -1778,32 +1778,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>家庭矛盾</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>居民张某与李某因楼上漏水问题产生纠纷，双方情绪激动，需要及时调解处理。</t>
+          <t>小区业主因宠物饲养问题产生纠纷，需要社区介入协调。</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>李警官</t>
+          <t>王警官</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>待盯办</t>
+          <t>已调解</t>
         </is>
       </c>
     </row>
@@ -1818,32 +1818,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>家庭矛盾</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>家庭成员因财产分割问题产生争议，情绪激烈，需要调解。</t>
+          <t>邻居因装修噪音问题产生矛盾，多次沟通无果，申请调解。</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>陈警官</t>
+          <t>李警官</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>已调解</t>
+          <t>调解中</t>
         </is>
       </c>
     </row>
@@ -1858,32 +1858,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>邻里矛盾</t>
+          <t>劳资纠纷</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>家庭成员因财产分割问题产生争议，情绪激烈，需要调解。</t>
+          <t>商铺租户与房东因租金上涨问题产生分歧，双方协商未果，需要调解介入。</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>中</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>李警官</t>
+          <t>陈警官</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>待盯办</t>
+          <t>调解中</t>
         </is>
       </c>
     </row>
@@ -1898,32 +1898,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>家庭矛盾</t>
+          <t>邻里矛盾</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>家庭成员因财产分割问题产生争议，情绪激烈，需要调解。</t>
+          <t>物业公司与业主因物业费收取问题产生纠纷，需要协调处理。</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>陈警官</t>
+          <t>赵警官</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>调解中</t>
+          <t>已调解</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1959,15 +1959,20 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>警情类型</t>
+          <t>警情父类</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>警情子类</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>地点</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>次数</t>
         </is>
@@ -1984,16 +1989,21 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>涉黄类</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>涉黄</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>展茅小区</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>2</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>朱家尖小区</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2007,16 +2017,21 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>偷盗</t>
+          <t>新型侵财</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>东港小区</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>3</v>
+          <t>通讯网络诈骗</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>沈家门小区</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2030,16 +2045,21 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诈骗</t>
+          <t>纠纷类</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>东港小区</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
+          <t>纠纷</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>桃花社区</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2048,21 +2068,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>涉赌</t>
+          <t>传统侵财</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>沈家门街道</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
+          <t>其它诈骗</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>东港小区</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2071,20 +2096,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>偷盗</t>
+          <t>传统侵财</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>沈家门小区</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
+          <t>其它诈骗</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>展茅小区</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2094,20 +2124,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>诈骗</t>
+          <t>传统侵财</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>展茅小区</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
+          <t>抢夺</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>沈家门小区</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2117,20 +2152,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>纠纷</t>
+          <t>涉黄类</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>桃花社区</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
+          <t>涉黄</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>朱家尖小区</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2140,21 +2180,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>人身伤害</t>
+          <t>涉赌类</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>普陀区东部</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>3</v>
+          <t>涉赌</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>展茅街道</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -2163,21 +2208,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>偷盗</t>
+          <t>传统侵财</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>东港小区</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>2</v>
+          <t>其它诈骗</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>和平小区</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -2191,16 +2241,21 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>人身伤害</t>
+          <t>传统侵财</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>普陀区南部</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>3</v>
+          <t>抢夺</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>东港小区</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -2209,21 +2264,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>偷盗</t>
+          <t>涉黄类</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>涉黄</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>沈家门小区</t>
         </is>
       </c>
-      <c r="E12" t="n">
-        <v>2</v>
+      <c r="F12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -2232,20 +2292,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>诈骗</t>
+          <t>人身伤害</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>朱家尖小区</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
+          <t>打架斗殴</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>普陀区中部</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2255,20 +2320,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>偷盗</t>
+          <t>人身伤害</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>和平小区</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
+          <t>家庭暴力</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>普陀区西部</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2278,21 +2348,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>诈骗</t>
+          <t>传统侵财</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>抢夺</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>和平小区</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>3</v>
+      <c r="F15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -2301,21 +2376,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>纠纷</t>
+          <t>涉黄类</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>展茅社区</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>2</v>
+          <t>涉黄</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>东港小区</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -2324,21 +2404,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>诈骗</t>
+          <t>涉赌类</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>朱家尖小区</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>2</v>
+          <t>涉赌</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>展茅街道</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2347,21 +2432,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>偷盗</t>
+          <t>传统侵财</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>东港小区</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>3</v>
+          <t>偷盗类</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>沈家门小区</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -2370,21 +2460,26 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>涉黄</t>
+          <t>传统侵财</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>沈家门小区</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
+          <t>其它诈骗</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>朱家尖小区</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -2393,21 +2488,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>诈骗</t>
+          <t>传统侵财</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>偷盗类</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>展茅小区</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>2</v>
+      <c r="F20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -2416,21 +2516,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>涉黄</t>
+          <t>传统侵财</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>东港小区</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>2</v>
+          <t>抢夺</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>和平小区</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -2439,21 +2544,26 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>偷盗</t>
+          <t>人身伤害</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>朱家尖小区</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>2</v>
+          <t>打架斗殴</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>普陀区西部</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -2462,20 +2572,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>涉赌</t>
+          <t>人身伤害</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>展茅街道</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
+          <t>家庭暴力</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>普陀区东部</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2485,20 +2600,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>涉黄</t>
+          <t>传统侵财</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>朱家尖小区</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
+          <t>抢夺</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>沈家门小区</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2508,21 +2628,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>纠纷</t>
+          <t>新型侵财</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>东港社区</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
+          <t>通讯网络诈骗</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>和平小区</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -2531,21 +2656,26 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>偷盗</t>
+          <t>传统侵财</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>展茅小区</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
+          <t>偷盗类</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>东港小区</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -2554,21 +2684,26 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>涉黄</t>
+          <t>传统侵财</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>东港小区</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>2</v>
+          <t>其它诈骗</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>和平小区</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -2577,21 +2712,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>纠纷</t>
+          <t>新型侵财</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>沈家门社区</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>3</v>
+          <t>通讯网络诈骗</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>和平小区</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -2600,21 +2740,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>人身伤害</t>
+          <t>涉黄类</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>普陀区北部</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>1</v>
+          <t>涉黄</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>沈家门小区</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -2623,21 +2768,26 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>偷盗</t>
+          <t>涉赌类</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>展茅小区</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>1</v>
+          <t>涉赌</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>桃花镇</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -2646,20 +2796,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>诈骗</t>
+          <t>涉黄类</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>和平小区</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
+          <t>涉黄</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>朱家尖小区</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2669,20 +2824,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>涉黄</t>
+          <t>传统侵财</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>沈家门小区</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
+          <t>偷盗类</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>展茅小区</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2692,21 +2852,26 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>纠纷</t>
+          <t>传统侵财</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>六横社区</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>1</v>
+          <t>其它诈骗</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>沈家门小区</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -2715,21 +2880,26 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>纠纷</t>
+          <t>新型侵财</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>六横社区</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>2</v>
+          <t>通讯网络诈骗</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>朱家尖小区</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2738,7 +2908,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2748,10 +2918,15 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>普陀区西部</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
+          <t>打架斗殴</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>普陀区北部</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2761,21 +2936,26 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>偷盗</t>
+          <t>传统侵财</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>和平小区</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>2</v>
+          <t>抢夺</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>东港小区</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -2784,20 +2964,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>诈骗</t>
+          <t>涉黄类</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>朱家尖小区</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
+          <t>涉黄</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>沈家门小区</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2807,21 +2992,26 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>纠纷类</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>纠纷</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>展茅社区</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>2</v>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>东港社区</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -2830,20 +3020,25 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>诈骗</t>
+          <t>人身伤害</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>朱家尖小区</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
+          <t>打架斗殴</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>普陀区北部</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2853,7 +3048,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2863,11 +3058,16 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>普陀区南部</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>3</v>
+          <t>家庭暴力</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>普陀区西部</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -2876,20 +3076,25 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>涉黄</t>
+          <t>新型侵财</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>东港小区</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
+          <t>通讯网络诈骗</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>展茅小区</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2899,21 +3104,26 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>涉黄</t>
+          <t>涉赌类</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>和平小区</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>3</v>
+          <t>涉赌</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>六横镇</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2922,20 +3132,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>人身伤害</t>
+          <t>传统侵财</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>普陀区北部</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
+          <t>偷盗类</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>展茅小区</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2945,21 +3160,26 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>偷盗</t>
+          <t>人身伤害</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>展茅小区</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>1</v>
+          <t>打架斗殴</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>普陀区北部</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -2968,21 +3188,1006 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>传统侵财</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>偷盗类</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>和平小区</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>传统侵财</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>抢夺</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>沈家门小区</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>新型侵财</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>通讯网络诈骗</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>朱家尖小区</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>人身伤害</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>家庭暴力</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>普陀区西部</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>传统侵财</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>抢夺</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>东港小区</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>涉赌类</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>涉赌</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>东港街道</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>纠纷类</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>纠纷</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>六横社区</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>传统侵财</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>偷盗类</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>沈家门小区</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>传统侵财</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>抢夺</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>和平小区</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>涉黄类</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>涉黄</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>朱家尖小区</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>传统侵财</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>偷盗类</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>和平小区</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>传统侵财</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>抢夺</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>沈家门小区</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>涉黄类</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>涉黄</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>朱家尖小区</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>涉赌类</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>涉赌</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>东港街道</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>人身伤害</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>打架斗殴</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>普陀区北部</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>纠纷类</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>纠纷</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>桃花社区</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>新型侵财</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>通讯网络诈骗</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>朱家尖小区</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>涉黄类</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>涉黄</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>朱家尖小区</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>人身伤害</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>打架斗殴</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>普陀区南部</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>人身伤害</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>家庭暴力</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>普陀区西部</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>传统侵财</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>抢夺</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>和平小区</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>新型侵财</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>通讯网络诈骗</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>朱家尖小区</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>涉黄类</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>涉黄</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>东港小区</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>人身伤害</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>家庭暴力</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>普陀区南部</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>新型侵财</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>通讯网络诈骗</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>沈家门小区</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>纠纷类</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>纠纷</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>六横社区</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>传统侵财</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>偷盗类</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>东港小区</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>涉赌类</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>涉赌</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>沈家门街道</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>人身伤害</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>打架斗殴</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>普陀区西部</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>纠纷类</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>纠纷</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>沈家门社区</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>传统侵财</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>其它诈骗</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>东港小区</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>人身伤害</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>家庭暴力</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>普陀区西部</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>纠纷类</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>纠纷</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>桃花社区</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
           <t>2025-12-27</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>涉黄</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>展茅小区</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>2</v>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>传统侵财</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>偷盗类</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>东港小区</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>新型侵财</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>通讯网络诈骗</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>东港小区</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>涉赌类</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>涉赌</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>东港街道</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2996,7 +4201,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D233"/>
+  <dimension ref="A1:D243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3037,11 +4242,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3055,11 +4260,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3073,11 +4278,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3086,16 +4291,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3109,11 +4314,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -3127,11 +4332,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -3140,16 +4345,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -3158,16 +4363,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -3181,11 +4386,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -3194,16 +4399,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -3212,16 +4417,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -3235,7 +4440,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -3253,11 +4458,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -3266,12 +4471,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -3284,16 +4489,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -3320,7 +4525,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3329,7 +4534,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -3338,16 +4543,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -3356,16 +4561,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -3374,16 +4579,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -3392,16 +4597,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -3410,12 +4615,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -3433,11 +4638,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -3451,7 +4656,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -3464,16 +4669,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -3482,7 +4687,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3491,7 +4696,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -3500,12 +4705,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -3518,12 +4723,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -3536,7 +4741,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3545,7 +4750,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -3554,16 +4759,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -3577,11 +4782,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -3590,12 +4795,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -3608,16 +4813,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -3626,16 +4831,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -3649,11 +4854,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -3662,16 +4867,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -3680,16 +4885,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -3703,7 +4908,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -3721,11 +4926,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -3739,11 +4944,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -3752,16 +4957,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -3775,11 +4980,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -3793,11 +4998,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -3811,11 +5016,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -3829,7 +5034,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -3851,7 +5056,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -3869,7 +5074,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -3883,11 +5088,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -3896,16 +5101,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -3919,7 +5124,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -3937,11 +5142,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -3955,11 +5160,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -3968,16 +5173,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -3986,16 +5191,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -4009,11 +5214,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -4027,11 +5232,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -4049,7 +5254,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -4058,16 +5263,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -4085,7 +5290,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -4099,11 +5304,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -4117,11 +5322,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -4135,11 +5340,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -4153,11 +5358,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -4171,7 +5376,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -4184,16 +5389,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -4207,11 +5412,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
@@ -4225,11 +5430,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -4243,7 +5448,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -4261,7 +5466,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -4274,16 +5479,16 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -4301,7 +5506,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -4315,7 +5520,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -4333,11 +5538,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -4351,11 +5556,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -4369,11 +5574,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -4387,11 +5592,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
@@ -4405,7 +5610,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -4418,16 +5623,16 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
@@ -4441,11 +5646,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -4463,7 +5668,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -4472,16 +5677,16 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -4495,11 +5700,11 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
@@ -4513,11 +5718,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
@@ -4526,16 +5731,16 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -4544,16 +5749,16 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -4562,16 +5767,16 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88">
@@ -4580,16 +5785,16 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -4598,16 +5803,16 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -4616,16 +5821,16 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
@@ -4634,16 +5839,16 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -4652,16 +5857,16 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
@@ -4670,16 +5875,16 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -4688,16 +5893,16 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -4706,12 +5911,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -4724,16 +5929,16 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -4742,7 +5947,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4760,16 +5965,16 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -4778,12 +5983,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -4796,16 +6001,16 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -4814,7 +6019,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4823,7 +6028,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102">
@@ -4832,16 +6037,16 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103">
@@ -4850,7 +6055,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4859,7 +6064,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104">
@@ -4868,12 +6073,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -4886,16 +6091,16 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -4904,12 +6109,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -4922,16 +6127,16 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2025-12-28</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -4940,16 +6145,16 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2025-12-28</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109">
@@ -4958,16 +6163,16 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2025-12-28</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110">
@@ -4976,16 +6181,16 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2025-12-28</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111">
@@ -4994,16 +6199,16 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2025-12-28</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -5012,16 +6217,16 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -5030,7 +6235,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5048,16 +6253,16 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -5066,16 +6271,16 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -5084,7 +6289,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2025-12-26</t>
+          <t>2025-12-28</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5102,16 +6307,16 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2025-12-26</t>
+          <t>2025-12-28</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -5120,16 +6325,16 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2025-12-26</t>
+          <t>2025-12-28</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -5138,16 +6343,16 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2025-12-25</t>
+          <t>2025-12-28</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
@@ -5156,16 +6361,16 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2025-12-25</t>
+          <t>2025-12-28</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -5174,7 +6379,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2025-12-25</t>
+          <t>2025-12-27</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5183,7 +6388,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
@@ -5192,16 +6397,16 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2025-12-25</t>
+          <t>2025-12-27</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -5210,16 +6415,16 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2025-12-25</t>
+          <t>2025-12-27</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124">
@@ -5228,16 +6433,16 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2025-12-24</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125">
@@ -5246,7 +6451,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2025-12-24</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5255,7 +6460,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -5264,12 +6469,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2025-12-24</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -5282,7 +6487,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2025-12-24</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5291,7 +6496,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -5300,7 +6505,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2025-12-24</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5309,7 +6514,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -5318,16 +6523,16 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2025-12-25</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
@@ -5336,12 +6541,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2025-12-25</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -5354,12 +6559,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2025-12-25</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -5372,16 +6577,16 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2025-12-25</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
@@ -5390,12 +6595,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2025-12-25</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -5408,7 +6613,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2025-12-24</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5417,7 +6622,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -5426,16 +6631,16 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2025-12-24</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136">
@@ -5444,12 +6649,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2025-12-24</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -5462,7 +6667,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2025-12-24</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5471,7 +6676,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -5480,16 +6685,16 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2025-12-21</t>
+          <t>2025-12-24</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
@@ -5498,16 +6703,16 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2025-12-21</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140">
@@ -5516,16 +6721,16 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2025-12-21</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -5534,7 +6739,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2025-12-21</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5543,7 +6748,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142">
@@ -5552,16 +6757,16 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2025-12-21</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143">
@@ -5570,16 +6775,16 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2025-12-20</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144">
@@ -5588,12 +6793,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2025-12-20</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -5606,16 +6811,16 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2025-12-20</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146">
@@ -5624,12 +6829,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -5642,16 +6847,16 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148">
@@ -5660,7 +6865,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2025-12-21</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5669,7 +6874,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -5678,7 +6883,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-21</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5687,7 +6892,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150">
@@ -5696,16 +6901,16 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-21</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151">
@@ -5714,7 +6919,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-21</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5723,7 +6928,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -5732,16 +6937,16 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2025-12-21</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153">
@@ -5750,16 +6955,16 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154">
@@ -5768,7 +6973,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5777,7 +6982,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155">
@@ -5786,16 +6991,16 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156">
@@ -5804,16 +7009,16 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
@@ -5822,7 +7027,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5831,7 +7036,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158">
@@ -5840,16 +7045,16 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159">
@@ -5858,16 +7063,16 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -5876,16 +7081,16 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -5894,12 +7099,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -5912,16 +7117,16 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -5930,12 +7135,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -5948,12 +7153,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -5966,16 +7171,16 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -5984,12 +7189,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D166" t="n">
@@ -6002,16 +7207,16 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168">
@@ -6020,16 +7225,16 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2025-12-13</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -6038,16 +7243,16 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2025-12-13</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -6056,16 +7261,16 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2025-12-13</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -6074,16 +7279,16 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2025-12-13</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -6092,12 +7297,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2025-12-13</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -6110,16 +7315,16 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -6128,16 +7333,16 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -6146,16 +7351,16 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -6164,16 +7369,16 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
@@ -6182,16 +7387,16 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178">
@@ -6200,12 +7405,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -6218,16 +7423,16 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -6236,16 +7441,16 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181">
@@ -6254,16 +7459,16 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182">
@@ -6272,16 +7477,16 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-13</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -6290,16 +7495,16 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-13</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -6308,12 +7513,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2025-12-13</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D184" t="n">
@@ -6326,16 +7531,16 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186">
@@ -6344,16 +7549,16 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187">
@@ -6362,16 +7567,16 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -6380,16 +7585,16 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -6398,16 +7603,16 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190">
@@ -6416,12 +7621,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -6434,16 +7639,16 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2025-12-07</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -6452,12 +7657,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2025-12-07</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -6470,16 +7675,16 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2025-12-07</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -6488,16 +7693,16 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2025-12-07</t>
+          <t>2025-12-09</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195">
@@ -6506,16 +7711,16 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2025-12-06</t>
+          <t>2025-12-09</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196">
@@ -6524,16 +7729,16 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2025-12-06</t>
+          <t>2025-12-09</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197">
@@ -6542,16 +7747,16 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2025-12-06</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
@@ -6560,16 +7765,16 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199">
@@ -6578,16 +7783,16 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200">
@@ -6596,7 +7801,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -6605,7 +7810,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -6614,16 +7819,16 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-07</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
@@ -6632,16 +7837,16 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-07</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203">
@@ -6650,12 +7855,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-07</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D203" t="n">
@@ -6668,16 +7873,16 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-07</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205">
@@ -6686,12 +7891,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-06</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D205" t="n">
@@ -6704,12 +7909,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-06</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D206" t="n">
@@ -6722,16 +7927,16 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-06</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -6740,16 +7945,16 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-06</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209">
@@ -6758,16 +7963,16 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-06</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210">
@@ -6776,12 +7981,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D210" t="n">
@@ -6794,16 +7999,16 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212">
@@ -6812,16 +8017,16 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213">
@@ -6830,16 +8035,16 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214">
@@ -6848,16 +8053,16 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215">
@@ -6866,16 +8071,16 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216">
@@ -6884,16 +8089,16 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217">
@@ -6902,16 +8107,16 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
@@ -6920,16 +8125,16 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2025-11-30</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -6938,16 +8143,16 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2025-11-30</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -6956,12 +8161,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2025-11-30</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -6974,16 +8179,16 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2025-11-30</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="222">
@@ -6992,16 +8197,16 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2025-11-30</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223">
@@ -7010,12 +8215,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2025-11-29</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D223" t="n">
@@ -7028,16 +8233,16 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2025-11-29</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225">
@@ -7046,12 +8251,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2025-11-29</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D225" t="n">
@@ -7064,16 +8269,16 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2025-11-29</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -7082,16 +8287,16 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-11-30</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -7100,16 +8305,16 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-11-30</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229">
@@ -7118,16 +8323,16 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-11-30</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230">
@@ -7136,12 +8341,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-11-30</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -7154,16 +8359,16 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2025-11-27</t>
+          <t>2025-11-29</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -7172,16 +8377,16 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2025-11-27</t>
+          <t>2025-11-29</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233">
@@ -7190,16 +8395,196 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>东港小区5号楼</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>沈家门街道和平路128号</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>展茅小区6号楼</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>朱家尖小区4号楼</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>沈家门小区2号楼</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>东港小区3号楼</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
           <t>2025-11-27</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>沈家门街道和平路128号</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>东港小区5号楼</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
         <is>
           <t>东港小区门口</t>
         </is>
       </c>
-      <c r="D233" t="n">
-        <v>5</v>
+      <c r="D241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>和平小区1号楼</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>朱家尖小区4号楼</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/backend/示例数据_测试导入.xlsx
+++ b/backend/示例数据_测试导入.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,15 +452,20 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>风险类型</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>风险问题</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>整改期限</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>责任民警</t>
         </is>
@@ -472,7 +477,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>330903202601000001</t>
+          <t>A330903202601000001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -482,27 +487,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>行政</t>
+          <t>治安</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>文书未开具,调解协议书未上传,案件笔录未关联</t>
+          <t>涉案财物问题</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>调解协议书未上传</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>赵警官</t>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>刘警官</t>
         </is>
       </c>
     </row>
@@ -512,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>330903202601000002</t>
+          <t>A330903202601000002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -522,27 +532,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>治安</t>
+          <t>行政</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>涉案物品未出入库,未结案卷未归档,文书未开具</t>
+          <t>初侦初查问题</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>调解协议书未上传,涉案物品未出入库</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>赵警官</t>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>张警官</t>
         </is>
       </c>
     </row>
@@ -552,7 +567,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>330903202601000003</t>
+          <t>A330903202601000003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -562,7 +577,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-12-26</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -572,17 +587,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>文书未开具,涉案物品未出入库,强制措施超期提醒</t>
+          <t>涉案财物问题</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>调解协议书未上传</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>赵警官</t>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>王警官</t>
         </is>
       </c>
     </row>
@@ -592,7 +612,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>330903202601000004</t>
+          <t>A330903202601000004</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -602,27 +622,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>刑事</t>
+          <t>行政</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>治安案件延长审批</t>
+          <t>初侦初查问题</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>案件笔录未关联</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>李警官</t>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>陈警官</t>
         </is>
       </c>
     </row>
@@ -632,7 +657,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>330903202601000005</t>
+          <t>A330903202601000005</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -642,27 +667,32 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-12-26</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>刑事</t>
+          <t>治安</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>强制措施超期提醒,未结案卷未归档</t>
+          <t>初侦初查问题</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>案件笔录未关联</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>赵警官</t>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>陈警官</t>
         </is>
       </c>
     </row>
@@ -672,7 +702,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>330903202601000006</t>
+          <t>A330903202601000006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -682,27 +712,32 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>刑事</t>
+          <t>行政</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>涉案物品未出入库</t>
+          <t>办案期限问题</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>涉案物品未出入库,强制措施超期提醒,案件笔录未关联</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>陈警官</t>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>李警官</t>
         </is>
       </c>
     </row>
@@ -712,7 +747,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>330903202601000007</t>
+          <t>A330903202601000007</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,27 +757,32 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>治安</t>
+          <t>行政</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>未结案卷未归档</t>
+          <t>初侦初查问题</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>调解协议书未上传</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>李警官</t>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>陈警官</t>
         </is>
       </c>
     </row>
@@ -752,7 +792,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>330903202601000008</t>
+          <t>A330903202601000008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -762,27 +802,32 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>行政</t>
+          <t>治安</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>案件笔录未关联,执法音视频未上传,治安案件延长审批</t>
+          <t>初侦初查问题</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>未结案卷未归档,执法音视频未上传,文书未开具</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>李警官</t>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>王警官</t>
         </is>
       </c>
     </row>
@@ -792,7 +837,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>330903202601000009</t>
+          <t>A330903202601000009</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -802,27 +847,32 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>治安</t>
+          <t>行政</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>案件笔录未关联,调解协议书未上传,强制措施超期提醒</t>
+          <t>办案期限问题</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>强制措施超期提醒,文书未开具</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>陈警官</t>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>刘警官</t>
         </is>
       </c>
     </row>
@@ -832,7 +882,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>330903202601000010</t>
+          <t>A330903202601000010</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -842,7 +892,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -852,17 +902,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>未结案卷未归档,调解协议书未上传</t>
+          <t>办案期限问题</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>执法音视频未上传,文书未开具,强制措施超期提醒</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>张警官</t>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>陈警官</t>
         </is>
       </c>
     </row>
@@ -872,7 +927,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>330903202601000011</t>
+          <t>A330903202601000011</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -882,27 +937,32 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>治安</t>
+          <t>行政</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>调解协议书未上传,治安案件延长审批</t>
+          <t>办案期限问题</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>文书未开具,强制措施超期提醒</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>张警官</t>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>赵警官</t>
         </is>
       </c>
     </row>
@@ -912,7 +972,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>330903202601000012</t>
+          <t>A330903202601000012</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -922,27 +982,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-12-26</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>刑事</t>
+          <t>治安</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>文书未开具,执法音视频未上传,涉案物品未出入库</t>
+          <t>办案期限问题</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>调解协议书未上传,涉案物品未出入库,强制措施超期提醒</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>王警官</t>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>李警官</t>
         </is>
       </c>
     </row>
@@ -952,7 +1017,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>330903202601000013</t>
+          <t>A330903202601000013</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -962,27 +1027,32 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>治安</t>
+          <t>刑事</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>案件笔录未关联,涉案物品未出入库</t>
+          <t>涉案财物问题</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>执法音视频未上传,文书未开具</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>李警官</t>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>刘警官</t>
         </is>
       </c>
     </row>
@@ -992,7 +1062,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>330903202601000014</t>
+          <t>A330903202601000014</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1002,27 +1072,32 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>刑事</t>
+          <t>治安</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>未结案卷未归档,强制措施超期提醒,涉案物品未出入库</t>
+          <t>涉案财物问题</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>执法音视频未上传,案件笔录未关联,调解协议书未上传</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>陈警官</t>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>王警官</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1107,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>330903202601000015</t>
+          <t>A330903202601000015</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1042,25 +1117,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>治安</t>
+          <t>刑事</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>治安案件延长审批,调解协议书未上传,未结案卷未归档</t>
+          <t>初侦初查问题</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>调解协议书未上传,执法音视频未上传</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>刘警官</t>
         </is>
@@ -1138,17 +1218,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>家庭矛盾</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>家庭成员因财产分割问题产生争议，情绪激烈，需要调解。</t>
+          <t>居民张某与李某因楼上漏水问题产生纠纷，双方情绪激动，需要及时调解处理。</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1158,12 +1238,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>张警官</t>
+          <t>陈警官</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>待盯办</t>
+          <t>调解中</t>
         </is>
       </c>
     </row>
@@ -1178,32 +1258,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>物业纠纷</t>
+          <t>邻里矛盾</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>小区业主因宠物饲养问题产生纠纷，需要社区介入协调。</t>
+          <t>家庭成员因财产分割问题产生争议，情绪激烈，需要调解。</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>中</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>赵警官</t>
+          <t>陈警官</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>待盯办</t>
+          <t>待化解</t>
         </is>
       </c>
     </row>
@@ -1223,27 +1303,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>小区业主因宠物饲养问题产生纠纷，需要社区介入协调。</t>
+          <t>商铺租户与房东因租金上涨问题产生分歧，双方协商未果，需要调解介入。</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>刘警官</t>
+          <t>王警官</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>待盯办</t>
+          <t>待化解</t>
         </is>
       </c>
     </row>
@@ -1258,32 +1338,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>物业纠纷</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>家庭成员因财产分割问题产生争议，情绪激烈，需要调解。</t>
+          <t>业主王某长期占用公共停车位，引发其他业主不满，物业协调未果。</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>中</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>李警官</t>
+          <t>王警官</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>调解中</t>
+          <t>待化解</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1378,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>劳资纠纷</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>物业公司与业主因物业费收取问题产生纠纷，需要协调处理。</t>
+          <t>业主王某长期占用公共停车位，引发其他业主不满，物业协调未果。</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-12-26</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1318,12 +1398,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>陈警官</t>
+          <t>赵警官</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>待盯办</t>
+          <t>待化解</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1418,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>家庭矛盾</t>
+          <t>邻里矛盾</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>物业公司与业主因物业费收取问题产生纠纷，需要协调处理。</t>
+          <t>家庭成员因财产分割问题产生争议，情绪激烈，需要调解。</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>中</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>张警官</t>
+          <t>王警官</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>未调解</t>
+          <t>调解中</t>
         </is>
       </c>
     </row>
@@ -1383,22 +1463,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>物业公司与业主因物业费收取问题产生纠纷，需要协调处理。</t>
+          <t>商铺租户与房东因租金上涨问题产生分歧，双方协商未果，需要调解介入。</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>李警官</t>
+          <t>张警官</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1418,32 +1498,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>家庭矛盾</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>员工与企业因工资发放问题产生劳资纠纷，申请调解。</t>
+          <t>业主王某长期占用公共停车位，引发其他业主不满，物业协调未果。</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>赵警官</t>
+          <t>刘警官</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>未调解</t>
+          <t>待化解</t>
         </is>
       </c>
     </row>
@@ -1458,22 +1538,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>家庭矛盾</t>
+          <t>物业纠纷</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>小区业主因宠物饲养问题产生纠纷，需要社区介入协调。</t>
+          <t>家庭成员因财产分割问题产生争议，情绪激烈，需要调解。</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1483,7 +1563,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>调解中</t>
+          <t>已调解</t>
         </is>
       </c>
     </row>
@@ -1508,22 +1588,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>张警官</t>
+          <t>赵警官</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>未调解</t>
+          <t>已调解</t>
         </is>
       </c>
     </row>
@@ -1538,32 +1618,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>劳资纠纷</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>员工与企业因工资发放问题产生劳资纠纷，申请调解。</t>
+          <t>居民张某与李某因楼上漏水问题产生纠纷，双方情绪激动，需要及时调解处理。</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>赵警官</t>
+          <t>张警官</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>未调解</t>
+          <t>待关注</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1658,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>物业纠纷</t>
+          <t>邻里矛盾</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1588,22 +1668,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>王警官</t>
+          <t>张警官</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>未调解</t>
+          <t>调解中</t>
         </is>
       </c>
     </row>
@@ -1618,17 +1698,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>邻里矛盾</t>
+          <t>物业纠纷</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>物业公司与业主因物业费收取问题产生纠纷，需要协调处理。</t>
+          <t>邻居因装修噪音问题产生矛盾，多次沟通无果，申请调解。</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1638,12 +1718,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>张警官</t>
+          <t>赵警官</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>待盯办</t>
+          <t>调解中</t>
         </is>
       </c>
     </row>
@@ -1658,17 +1738,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>邻里矛盾</t>
+          <t>劳资纠纷</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>业主王某长期占用公共停车位，引发其他业主不满，物业协调未果。</t>
+          <t>员工与企业因工资发放问题产生劳资纠纷，申请调解。</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1678,12 +1758,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>王警官</t>
+          <t>李警官</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>待盯办</t>
+          <t>调解中</t>
         </is>
       </c>
     </row>
@@ -1698,32 +1778,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>物业纠纷</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>居民张某与李某因楼上漏水问题产生纠纷，双方情绪激动，需要及时调解处理。</t>
+          <t>业主王某长期占用公共停车位，引发其他业主不满，物业协调未果。</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>张警官</t>
+          <t>陈警官</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>未调解</t>
+          <t>待化解</t>
         </is>
       </c>
     </row>
@@ -1743,27 +1823,27 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>小区业主因宠物饲养问题产生纠纷，需要社区介入协调。</t>
+          <t>商铺租户与房东因租金上涨问题产生分歧，双方协商未果，需要调解介入。</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-12-28</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>中</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>刘警官</t>
+          <t>赵警官</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>已调解</t>
+          <t>待关注</t>
         </is>
       </c>
     </row>
@@ -1778,17 +1858,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>家庭矛盾</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>小区业主因宠物饲养问题产生纠纷，需要社区介入协调。</t>
+          <t>商铺租户与房东因租金上涨问题产生分歧，双方协商未果，需要调解介入。</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1798,7 +1878,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>王警官</t>
+          <t>刘警官</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1818,17 +1898,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>家庭矛盾</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>邻居因装修噪音问题产生矛盾，多次沟通无果，申请调解。</t>
+          <t>居民张某与李某因楼上漏水问题产生纠纷，双方情绪激动，需要及时调解处理。</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1838,12 +1918,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>李警官</t>
+          <t>陈警官</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>调解中</t>
+          <t>待化解</t>
         </is>
       </c>
     </row>
@@ -1858,32 +1938,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>劳资纠纷</t>
+          <t>邻里矛盾</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>商铺租户与房东因租金上涨问题产生分歧，双方协商未果，需要调解介入。</t>
+          <t>物业公司与业主因物业费收取问题产生纠纷，需要协调处理。</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>陈警官</t>
+          <t>王警官</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>调解中</t>
+          <t>已调解</t>
         </is>
       </c>
     </row>
@@ -1898,22 +1978,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>邻里矛盾</t>
+          <t>劳资纠纷</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>物业公司与业主因物业费收取问题产生纠纷，需要协调处理。</t>
+          <t>邻居因装修噪音问题产生矛盾，多次沟通无果，申请调解。</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>中</t>
+          <t>高</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1923,7 +2003,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>已调解</t>
+          <t>调解中</t>
         </is>
       </c>
     </row>
@@ -1984,26 +2064,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>涉黄类</t>
+          <t>传统侵财</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>涉黄</t>
+          <t>其它诈骗</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>朱家尖小区</t>
+          <t>沈家门小区</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2012,17 +2092,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>新型侵财</t>
+          <t>传统侵财</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>通讯网络诈骗</t>
+          <t>抢夺</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2031,7 +2111,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2040,26 +2120,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>纠纷类</t>
+          <t>新型侵财</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>纠纷</t>
+          <t>通讯网络诈骗</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>桃花社区</t>
+          <t>沈家门小区</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2068,26 +2148,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>传统侵财</t>
+          <t>人身伤害</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>其它诈骗</t>
+          <t>家庭暴力</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>东港小区</t>
+          <t>普陀区南部</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2096,7 +2176,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2111,11 +2191,11 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>展茅小区</t>
+          <t>东港小区</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2124,26 +2204,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>传统侵财</t>
+          <t>涉赌类</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>抢夺</t>
+          <t>涉赌</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>沈家门小区</t>
+          <t>沈家门街道</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -2152,26 +2232,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>涉黄类</t>
+          <t>人身伤害</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>涉黄</t>
+          <t>打架斗殴</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>朱家尖小区</t>
+          <t>普陀区西部</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -2180,26 +2260,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>涉赌类</t>
+          <t>人身伤害</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>涉赌</t>
+          <t>家庭暴力</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>展茅街道</t>
+          <t>普陀区西部</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -2208,26 +2288,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>传统侵财</t>
+          <t>纠纷类</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>其它诈骗</t>
+          <t>纠纷</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>和平小区</t>
+          <t>六横社区</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -2236,22 +2316,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>传统侵财</t>
+          <t>新型侵财</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>抢夺</t>
+          <t>通讯网络诈骗</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>东港小区</t>
+          <t>朱家尖小区</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -2264,7 +2344,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2279,7 +2359,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>沈家门小区</t>
+          <t>东港小区</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2292,7 +2372,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2307,7 +2387,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>普陀区中部</t>
+          <t>普陀区南部</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2320,26 +2400,26 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>人身伤害</t>
+          <t>传统侵财</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>家庭暴力</t>
+          <t>偷盗类</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>普陀区西部</t>
+          <t>东港小区</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -2348,26 +2428,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>传统侵财</t>
+          <t>人身伤害</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>抢夺</t>
+          <t>家庭暴力</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>和平小区</t>
+          <t>普陀区南部</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -2376,17 +2456,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>涉黄类</t>
+          <t>传统侵财</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>涉黄</t>
+          <t>抢夺</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2395,7 +2475,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -2404,26 +2484,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>涉赌类</t>
+          <t>新型侵财</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>涉赌</t>
+          <t>通讯网络诈骗</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>展茅街道</t>
+          <t>和平小区</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -2432,22 +2512,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>传统侵财</t>
+          <t>涉赌类</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>偷盗类</t>
+          <t>涉赌</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>沈家门小区</t>
+          <t>六横镇</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2460,22 +2540,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>传统侵财</t>
+          <t>纠纷类</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>其它诈骗</t>
+          <t>纠纷</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>朱家尖小区</t>
+          <t>沈家门社区</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2488,7 +2568,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2498,16 +2578,16 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>偷盗类</t>
+          <t>其它诈骗</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>展茅小区</t>
+          <t>东港小区</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2516,26 +2596,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>传统侵财</t>
+          <t>涉赌类</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>抢夺</t>
+          <t>涉赌</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>和平小区</t>
+          <t>东港街道</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -2544,22 +2624,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>人身伤害</t>
+          <t>纠纷类</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>打架斗殴</t>
+          <t>纠纷</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>普陀区西部</t>
+          <t>桃花社区</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2572,22 +2652,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>人身伤害</t>
+          <t>传统侵财</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>家庭暴力</t>
+          <t>偷盗类</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>普陀区东部</t>
+          <t>朱家尖小区</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2600,7 +2680,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2615,11 +2695,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>沈家门小区</t>
+          <t>东港小区</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -2628,26 +2708,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>新型侵财</t>
+          <t>纠纷类</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>通讯网络诈骗</t>
+          <t>纠纷</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>和平小区</t>
+          <t>沈家门社区</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2656,26 +2736,26 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>传统侵财</t>
+          <t>纠纷类</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>偷盗类</t>
+          <t>纠纷</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>东港小区</t>
+          <t>展茅社区</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2764,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2699,7 +2779,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>和平小区</t>
+          <t>东港小区</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2712,7 +2792,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2727,7 +2807,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>和平小区</t>
+          <t>东港小区</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2740,26 +2820,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>涉黄类</t>
+          <t>涉赌类</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>涉黄</t>
+          <t>涉赌</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>沈家门小区</t>
+          <t>展茅街道</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -2768,26 +2848,26 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>涉赌类</t>
+          <t>传统侵财</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>涉赌</t>
+          <t>其它诈骗</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>桃花镇</t>
+          <t>朱家尖小区</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -2796,7 +2876,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2811,11 +2891,11 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>朱家尖小区</t>
+          <t>沈家门小区</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2824,26 +2904,26 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>传统侵财</t>
+          <t>涉赌类</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>偷盗类</t>
+          <t>涉赌</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>展茅小区</t>
+          <t>展茅街道</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -2852,26 +2932,26 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>传统侵财</t>
+          <t>纠纷类</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>其它诈骗</t>
+          <t>纠纷</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>沈家门小区</t>
+          <t>六横社区</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -2880,17 +2960,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>新型侵财</t>
+          <t>涉黄类</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>通讯网络诈骗</t>
+          <t>涉黄</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2899,7 +2979,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -2908,7 +2988,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2927,7 +3007,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2936,7 +3016,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2946,16 +3026,16 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>抢夺</t>
+          <t>偷盗类</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>东港小区</t>
+          <t>沈家门小区</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -2964,26 +3044,26 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>涉黄类</t>
+          <t>新型侵财</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>涉黄</t>
+          <t>通讯网络诈骗</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>沈家门小区</t>
+          <t>展茅小区</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -2992,26 +3072,26 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>纠纷类</t>
+          <t>涉黄类</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>纠纷</t>
+          <t>涉黄</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>东港社区</t>
+          <t>和平小区</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -3020,7 +3100,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3030,12 +3110,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>打架斗殴</t>
+          <t>家庭暴力</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>普陀区北部</t>
+          <t>普陀区南部</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -3048,26 +3128,26 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>人身伤害</t>
+          <t>涉黄类</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>家庭暴力</t>
+          <t>涉黄</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>普陀区西部</t>
+          <t>朱家尖小区</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -3076,26 +3156,26 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>新型侵财</t>
+          <t>涉赌类</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>通讯网络诈骗</t>
+          <t>涉赌</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>展茅小区</t>
+          <t>展茅街道</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -3104,22 +3184,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>涉赌类</t>
+          <t>涉黄类</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>涉赌</t>
+          <t>涉黄</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>六横镇</t>
+          <t>沈家门小区</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -3132,26 +3212,26 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>传统侵财</t>
+          <t>纠纷类</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>偷盗类</t>
+          <t>纠纷</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>展茅小区</t>
+          <t>六横社区</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -3160,26 +3240,26 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>人身伤害</t>
+          <t>涉赌类</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>打架斗殴</t>
+          <t>涉赌</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>普陀区北部</t>
+          <t>东港街道</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -3188,26 +3268,26 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>传统侵财</t>
+          <t>人身伤害</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>偷盗类</t>
+          <t>打架斗殴</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>和平小区</t>
+          <t>普陀区东部</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -3216,7 +3296,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3226,16 +3306,16 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>抢夺</t>
+          <t>偷盗类</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>沈家门小区</t>
+          <t>朱家尖小区</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -3244,22 +3324,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>新型侵财</t>
+          <t>涉黄类</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>通讯网络诈骗</t>
+          <t>涉黄</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>朱家尖小区</t>
+          <t>沈家门小区</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -3272,22 +3352,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>人身伤害</t>
+          <t>新型侵财</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>家庭暴力</t>
+          <t>通讯网络诈骗</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>普陀区西部</t>
+          <t>沈家门小区</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -3300,22 +3380,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>传统侵财</t>
+          <t>涉黄类</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>抢夺</t>
+          <t>涉黄</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>东港小区</t>
+          <t>展茅小区</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -3328,7 +3408,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3343,11 +3423,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>东港街道</t>
+          <t>六横镇</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -3356,26 +3436,26 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>纠纷类</t>
+          <t>人身伤害</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>纠纷</t>
+          <t>打架斗殴</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>六横社区</t>
+          <t>普陀区南部</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -3384,26 +3464,26 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>传统侵财</t>
+          <t>纠纷类</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>偷盗类</t>
+          <t>纠纷</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>沈家门小区</t>
+          <t>沈家门社区</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -3412,26 +3492,26 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>传统侵财</t>
+          <t>新型侵财</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>抢夺</t>
+          <t>通讯网络诈骗</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>和平小区</t>
+          <t>东港小区</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -3440,26 +3520,26 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>涉黄类</t>
+          <t>传统侵财</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>涉黄</t>
+          <t>偷盗类</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>朱家尖小区</t>
+          <t>和平小区</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -3468,7 +3548,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3478,16 +3558,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>偷盗类</t>
+          <t>抢夺</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>和平小区</t>
+          <t>沈家门小区</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -3496,22 +3576,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>传统侵财</t>
+          <t>新型侵财</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>抢夺</t>
+          <t>通讯网络诈骗</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>沈家门小区</t>
+          <t>和平小区</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3524,7 +3604,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3539,7 +3619,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>朱家尖小区</t>
+          <t>东港小区</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -3552,22 +3632,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>涉赌类</t>
+          <t>人身伤害</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>涉赌</t>
+          <t>打架斗殴</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>东港街道</t>
+          <t>普陀区中部</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -3580,26 +3660,26 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>人身伤害</t>
+          <t>传统侵财</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>打架斗殴</t>
+          <t>抢夺</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>普陀区北部</t>
+          <t>沈家门小区</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -3608,26 +3688,26 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>纠纷类</t>
+          <t>人身伤害</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>纠纷</t>
+          <t>打架斗殴</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>桃花社区</t>
+          <t>普陀区中部</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -3636,26 +3716,26 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>新型侵财</t>
+          <t>纠纷类</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>通讯网络诈骗</t>
+          <t>纠纷</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>朱家尖小区</t>
+          <t>沈家门社区</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -3664,17 +3744,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>涉黄类</t>
+          <t>传统侵财</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>涉黄</t>
+          <t>偷盗类</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3692,7 +3772,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3707,11 +3787,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>普陀区南部</t>
+          <t>普陀区西部</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -3720,26 +3800,26 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>人身伤害</t>
+          <t>纠纷类</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>家庭暴力</t>
+          <t>纠纷</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>普陀区西部</t>
+          <t>东港社区</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -3748,7 +3828,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3758,16 +3838,16 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>抢夺</t>
+          <t>偷盗类</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>和平小区</t>
+          <t>东港小区</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -3776,22 +3856,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>新型侵财</t>
+          <t>传统侵财</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>通讯网络诈骗</t>
+          <t>其它诈骗</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>朱家尖小区</t>
+          <t>展茅小区</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3804,17 +3884,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>涉黄类</t>
+          <t>传统侵财</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>涉黄</t>
+          <t>抢夺</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3823,7 +3903,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -3832,26 +3912,26 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>人身伤害</t>
+          <t>传统侵财</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>家庭暴力</t>
+          <t>抢夺</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>普陀区南部</t>
+          <t>和平小区</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -3860,26 +3940,26 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>新型侵财</t>
+          <t>涉赌类</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>通讯网络诈骗</t>
+          <t>涉赌</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>沈家门小区</t>
+          <t>六横镇</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -3888,26 +3968,26 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>纠纷类</t>
+          <t>人身伤害</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>纠纷</t>
+          <t>家庭暴力</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>六横社区</t>
+          <t>普陀区东部</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -3916,7 +3996,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3926,16 +4006,16 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>偷盗类</t>
+          <t>其它诈骗</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>东港小区</t>
+          <t>展茅小区</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -3944,26 +4024,26 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>涉赌类</t>
+          <t>人身伤害</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>涉赌</t>
+          <t>打架斗殴</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>沈家门街道</t>
+          <t>普陀区东部</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -3972,26 +4052,26 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>人身伤害</t>
+          <t>纠纷类</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>打架斗殴</t>
+          <t>纠纷</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>普陀区西部</t>
+          <t>展茅社区</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -4000,22 +4080,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>纠纷类</t>
+          <t>新型侵财</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>纠纷</t>
+          <t>通讯网络诈骗</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>沈家门社区</t>
+          <t>沈家门小区</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -4028,17 +4108,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2025-12-28</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>传统侵财</t>
+          <t>涉黄类</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>其它诈骗</t>
+          <t>涉黄</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4056,7 +4136,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2025-12-28</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4066,12 +4146,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>家庭暴力</t>
+          <t>打架斗殴</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>普陀区西部</t>
+          <t>普陀区北部</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4084,7 +4164,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2025-12-28</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4099,11 +4179,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>桃花社区</t>
+          <t>六横社区</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -4112,7 +4192,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4122,16 +4202,16 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>偷盗类</t>
+          <t>抢夺</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>东港小区</t>
+          <t>和平小区</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -4140,7 +4220,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4155,11 +4235,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>东港小区</t>
+          <t>朱家尖小区</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -4168,26 +4248,26 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>涉赌类</t>
+          <t>人身伤害</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>涉赌</t>
+          <t>打架斗殴</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>东港街道</t>
+          <t>普陀区北部</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4201,7 +4281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D243"/>
+  <dimension ref="A1:D250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4237,12 +4317,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -4255,12 +4335,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -4273,12 +4353,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -4291,7 +4371,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -4309,7 +4389,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4327,16 +4407,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -4345,7 +4425,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4354,7 +4434,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -4363,7 +4443,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4372,7 +4452,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -4381,16 +4461,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -4399,16 +4479,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -4417,12 +4497,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -4435,12 +4515,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -4453,16 +4533,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -4471,16 +4551,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -4489,16 +4569,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -4507,16 +4587,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -4525,16 +4605,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -4543,16 +4623,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -4561,12 +4641,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -4579,16 +4659,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -4597,12 +4677,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -4615,12 +4695,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -4633,16 +4713,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -4651,16 +4731,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -4669,16 +4749,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -4687,16 +4767,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -4705,16 +4785,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -4723,16 +4803,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -4741,16 +4821,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -4759,12 +4839,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -4777,16 +4857,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -4795,16 +4875,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -4813,16 +4893,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -4831,16 +4911,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -4849,16 +4929,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -4867,16 +4947,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -4885,16 +4965,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -4903,12 +4983,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -4921,7 +5001,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4930,7 +5010,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -4939,16 +5019,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -4957,12 +5037,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -4975,16 +5055,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -4993,16 +5073,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -5011,12 +5091,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -5029,16 +5109,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -5047,16 +5127,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -5065,16 +5145,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -5083,16 +5163,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -5101,16 +5181,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -5119,12 +5199,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -5137,16 +5217,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -5155,16 +5235,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -5173,16 +5253,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -5191,16 +5271,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -5209,16 +5289,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -5227,7 +5307,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -5236,7 +5316,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -5245,16 +5325,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -5263,12 +5343,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -5281,16 +5361,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -5299,16 +5379,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -5317,16 +5397,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -5335,12 +5415,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -5353,16 +5433,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -5371,12 +5451,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -5389,12 +5469,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -5407,16 +5487,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -5425,16 +5505,16 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -5443,16 +5523,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -5461,16 +5541,16 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
@@ -5479,7 +5559,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -5497,12 +5577,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -5515,16 +5595,16 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -5533,16 +5613,16 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -5551,16 +5631,16 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -5569,16 +5649,16 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
@@ -5587,12 +5667,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -5605,16 +5685,16 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -5623,16 +5703,16 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -5641,7 +5721,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5650,7 +5730,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -5659,16 +5739,16 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
@@ -5677,16 +5757,16 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
@@ -5695,16 +5775,16 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -5713,16 +5793,16 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -5731,16 +5811,16 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -5749,16 +5829,16 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -5767,16 +5847,16 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -5785,16 +5865,16 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -5803,16 +5883,16 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
@@ -5821,16 +5901,16 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
@@ -5839,7 +5919,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5848,7 +5928,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -5857,12 +5937,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -5875,16 +5955,16 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
@@ -5893,16 +5973,16 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
@@ -5911,16 +5991,16 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
@@ -5929,16 +6009,16 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
@@ -5947,16 +6027,16 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -5965,16 +6045,16 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -5983,7 +6063,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5992,7 +6072,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -6001,16 +6081,16 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -6019,16 +6099,16 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -6037,16 +6117,16 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
@@ -6055,12 +6135,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -6073,16 +6153,16 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105">
@@ -6091,16 +6171,16 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
@@ -6109,7 +6189,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -6118,7 +6198,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -6127,16 +6207,16 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
@@ -6145,16 +6225,16 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
@@ -6163,16 +6243,16 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
@@ -6181,12 +6261,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -6199,16 +6279,16 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -6217,16 +6297,16 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113">
@@ -6235,16 +6315,16 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
@@ -6253,16 +6333,16 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115">
@@ -6271,16 +6351,16 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116">
@@ -6289,16 +6369,16 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2025-12-28</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117">
@@ -6307,12 +6387,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2025-12-28</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -6325,7 +6405,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2025-12-28</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6334,7 +6414,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
@@ -6343,16 +6423,16 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2025-12-28</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120">
@@ -6361,16 +6441,16 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2025-12-28</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121">
@@ -6379,7 +6459,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6397,12 +6477,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -6415,16 +6495,16 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124">
@@ -6433,16 +6513,16 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2025-12-26</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125">
@@ -6451,7 +6531,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2025-12-26</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6460,7 +6540,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126">
@@ -6469,16 +6549,16 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2025-12-26</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -6487,7 +6567,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2025-12-26</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6496,7 +6576,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -6505,16 +6585,16 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2025-12-26</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129">
@@ -6523,16 +6603,16 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2025-12-25</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -6541,12 +6621,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2025-12-25</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -6559,16 +6639,16 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2025-12-25</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132">
@@ -6577,12 +6657,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2025-12-25</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -6595,16 +6675,16 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2025-12-25</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134">
@@ -6613,16 +6693,16 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2025-12-24</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135">
@@ -6631,7 +6711,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2025-12-24</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6649,16 +6729,16 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2025-12-24</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137">
@@ -6667,16 +6747,16 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2025-12-24</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138">
@@ -6685,12 +6765,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2025-12-24</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -6703,7 +6783,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6712,7 +6792,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140">
@@ -6721,16 +6801,16 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -6739,16 +6819,16 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -6757,16 +6837,16 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -6775,16 +6855,16 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -6793,16 +6873,16 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145">
@@ -6811,7 +6891,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6820,7 +6900,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -6829,16 +6909,16 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147">
@@ -6847,7 +6927,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6865,12 +6945,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2025-12-21</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -6883,7 +6963,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2025-12-21</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6892,7 +6972,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -6901,16 +6981,16 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2025-12-21</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151">
@@ -6919,12 +6999,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2025-12-21</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -6937,16 +7017,16 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2025-12-21</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -6955,16 +7035,16 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2025-12-20</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154">
@@ -6973,12 +7053,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2025-12-20</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -6991,16 +7071,16 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2025-12-20</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156">
@@ -7009,16 +7089,16 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157">
@@ -7027,16 +7107,16 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158">
@@ -7045,12 +7125,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -7063,16 +7143,16 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
@@ -7081,7 +7161,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7090,7 +7170,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161">
@@ -7099,12 +7179,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -7117,16 +7197,16 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163">
@@ -7135,16 +7215,16 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
@@ -7153,7 +7233,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7162,7 +7242,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165">
@@ -7171,16 +7251,16 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166">
@@ -7189,16 +7269,16 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167">
@@ -7207,12 +7287,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -7225,16 +7305,16 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169">
@@ -7243,12 +7323,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -7261,16 +7341,16 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171">
@@ -7279,16 +7359,16 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172">
@@ -7297,16 +7377,16 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173">
@@ -7315,7 +7395,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -7324,7 +7404,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -7333,16 +7413,16 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -7351,16 +7431,16 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -7369,16 +7449,16 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177">
@@ -7387,12 +7467,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -7405,7 +7485,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -7414,7 +7494,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179">
@@ -7423,16 +7503,16 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180">
@@ -7441,16 +7521,16 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181">
@@ -7459,16 +7539,16 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -7477,16 +7557,16 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2025-12-13</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183">
@@ -7495,16 +7575,16 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2025-12-13</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184">
@@ -7513,7 +7593,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2025-12-13</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -7522,7 +7602,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185">
@@ -7531,16 +7611,16 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -7549,16 +7629,16 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-28</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -7567,7 +7647,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-28</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -7576,7 +7656,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -7585,16 +7665,16 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-28</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -7603,16 +7683,16 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-28</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190">
@@ -7621,16 +7701,16 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-28</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191">
@@ -7639,16 +7719,16 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-27</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -7657,16 +7737,16 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-27</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193">
@@ -7675,16 +7755,16 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-27</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -7693,16 +7773,16 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -7711,16 +7791,16 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196">
@@ -7729,16 +7809,16 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197">
@@ -7747,16 +7827,16 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198">
@@ -7765,12 +7845,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -7783,12 +7863,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>2025-12-25</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -7801,16 +7881,16 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>2025-12-25</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201">
@@ -7819,16 +7899,16 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2025-12-07</t>
+          <t>2025-12-25</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202">
@@ -7837,16 +7917,16 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2025-12-07</t>
+          <t>2025-12-25</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203">
@@ -7855,16 +7935,16 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2025-12-07</t>
+          <t>2025-12-24</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204">
@@ -7873,16 +7953,16 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2025-12-07</t>
+          <t>2025-12-24</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205">
@@ -7891,12 +7971,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2025-12-06</t>
+          <t>2025-12-24</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D205" t="n">
@@ -7909,16 +7989,16 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2025-12-06</t>
+          <t>2025-12-24</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207">
@@ -7927,16 +8007,16 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2025-12-06</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208">
@@ -7945,16 +8025,16 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2025-12-06</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209">
@@ -7963,12 +8043,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2025-12-06</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -7981,7 +8061,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7990,7 +8070,7 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211">
@@ -7999,16 +8079,16 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212">
@@ -8017,16 +8097,16 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213">
@@ -8035,12 +8115,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -8053,16 +8133,16 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-21</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215">
@@ -8071,16 +8151,16 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-21</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216">
@@ -8089,12 +8169,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-21</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D216" t="n">
@@ -8107,16 +8187,16 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218">
@@ -8125,16 +8205,16 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219">
@@ -8143,16 +8223,16 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220">
@@ -8161,16 +8241,16 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -8179,12 +8259,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D221" t="n">
@@ -8197,7 +8277,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -8206,7 +8286,7 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223">
@@ -8215,7 +8295,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -8224,7 +8304,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224">
@@ -8233,16 +8313,16 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225">
@@ -8251,16 +8331,16 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226">
@@ -8269,16 +8349,16 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227">
@@ -8287,16 +8367,16 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2025-11-30</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228">
@@ -8305,16 +8385,16 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2025-11-30</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229">
@@ -8323,16 +8403,16 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2025-11-30</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230">
@@ -8341,16 +8421,16 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2025-11-30</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>东港小区5号楼</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231">
@@ -8359,16 +8439,16 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2025-11-29</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>展茅小区6号楼</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232">
@@ -8377,12 +8457,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2025-11-29</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D232" t="n">
@@ -8395,12 +8475,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2025-11-29</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D233" t="n">
@@ -8413,16 +8493,16 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2025-11-29</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -8431,12 +8511,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>展茅小区6号楼</t>
+          <t>东港小区门口</t>
         </is>
       </c>
       <c r="D235" t="n">
@@ -8449,16 +8529,16 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>朱家尖小区4号楼</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237">
@@ -8467,16 +8547,16 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>沈家门小区2号楼</t>
+          <t>和平小区1号楼</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238">
@@ -8485,16 +8565,16 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>东港小区3号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -8503,12 +8583,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2025-11-27</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>沈家门街道和平路128号</t>
+          <t>东港小区3号楼</t>
         </is>
       </c>
       <c r="D239" t="n">
@@ -8521,16 +8601,16 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2025-11-27</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>东港小区5号楼</t>
+          <t>朱家尖小区4号楼</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241">
@@ -8539,16 +8619,16 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2025-11-27</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>东港小区门口</t>
+          <t>沈家门小区2号楼</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="242">
@@ -8557,12 +8637,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2025-11-27</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>和平小区1号楼</t>
+          <t>沈家门街道和平路128号</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -8575,16 +8655,142 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2025-11-27</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
+          <t>展茅小区6号楼</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>和平小区1号楼</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>沈家门小区2号楼</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
           <t>朱家尖小区4号楼</t>
         </is>
       </c>
-      <c r="D243" t="n">
+      <c r="D246" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>沈家门小区2号楼</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>展茅小区6号楼</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>和平小区1号楼</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>东港小区5号楼</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
